--- a/biology/Médecine/Carpipramine/Carpipramine.xlsx
+++ b/biology/Médecine/Carpipramine/Carpipramine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La carpipramine (Prazinil, Defekton) est un neuroleptique atypique de la famille des dibenzoazépines utilisé dans le traitement de la schizophrénie et de l'anxiété en France et au Japon[3],[4],[5],[6]. Il a par ailleurs des effets hypnotiques[5]. Sa structure chimique est à la fois proche des antidépresseurs tricycliques comme l'imipramine et d'une classe de neuroleptique : les butyrophénones comme l'halopéridol[5].
-En mai 2014, l'Agence nationale de sécurité du médicament et des produits de santé (ANSM) retire son autorisation de mise sur le marché en France à la  carpipramine, notamment face à une balance bénéfice-risque défavorable à la molécule (données d'efficacité insuffisantes et toxicité cardio-vasculaire dose-dépendante). Cette mesure prend effet en septembre de la même année[7].
+La carpipramine (Prazinil, Defekton) est un neuroleptique atypique de la famille des dibenzoazépines utilisé dans le traitement de la schizophrénie et de l'anxiété en France et au Japon. Il a par ailleurs des effets hypnotiques. Sa structure chimique est à la fois proche des antidépresseurs tricycliques comme l'imipramine et d'une classe de neuroleptique : les butyrophénones comme l'halopéridol.
+En mai 2014, l'Agence nationale de sécurité du médicament et des produits de santé (ANSM) retire son autorisation de mise sur le marché en France à la  carpipramine, notamment face à une balance bénéfice-risque défavorable à la molécule (données d'efficacité insuffisantes et toxicité cardio-vasculaire dose-dépendante). Cette mesure prend effet en septembre de la même année.
 </t>
         </is>
       </c>
